--- a/Server/Templates/invoice-template.xlsx
+++ b/Server/Templates/invoice-template.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B1FAB-EA18-4357-918C-D2EE0BBA3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AC7C6-DA2B-4BC4-B4C8-5FA6037F9D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17055" yWindow="3555" windowWidth="19080" windowHeight="15210" xr2:uid="{5C5BC009-77A7-4779-A9B3-4B0556276CE1}"/>
+    <workbookView xWindow="8925" yWindow="1890" windowWidth="28800" windowHeight="15330" xr2:uid="{5C5BC009-77A7-4779-A9B3-4B0556276CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
-  <si>
-    <t>作成日</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>御　請　求　書</t>
     <rPh sb="0" eb="1">
@@ -289,7 +282,30 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>請求No</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請求日</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録番号</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -297,13 +313,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +437,14 @@
       <color rgb="FFFFC000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -726,10 +751,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,9 +765,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -754,6 +772,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -766,13 +790,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -815,10 +832,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1088,6 +1105,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1095,12 +1118,7 @@
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1492,11 +1510,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317CAD98-670F-43B5-BAEA-15E5D54ED1DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1512,399 +1528,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="146"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="147"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="1"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="1"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-    </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-    </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
+      <c r="H11" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-    </row>
-    <row r="12" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="14" t="s">
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="14" t="s">
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A17" s="52" t="s">
+    </row>
+    <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="52" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="65"/>
+      <c r="J19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="6" t="s">
+      <c r="K19" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="67"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="34"/>
+      <c r="N19" s="65"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="53"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="54"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="54"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
       <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="34"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="54"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
       <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="52"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="54"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
       <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="Q23" s="36"/>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="80"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="52"/>
       <c r="G24" s="54"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
       <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="36"/>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="80"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="52"/>
       <c r="G25" s="54"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="34"/>
@@ -1912,39 +1914,41 @@
       <c r="T25" s="35"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="80"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="52"/>
       <c r="G26" s="54"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="34"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="80"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="52"/>
       <c r="G27" s="54"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
       <c r="R27" s="34"/>
@@ -1952,62 +1956,60 @@
       <c r="T27" s="35"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="80"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="52"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
       <c r="R28" s="34"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="80"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="52"/>
       <c r="G29" s="54"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="34"/>
-      <c r="S29" s="41"/>
+      <c r="S29" s="35"/>
       <c r="T29" s="35"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="80"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="52"/>
       <c r="G30" s="54"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="34"/>
@@ -2015,1492 +2017,1507 @@
       <c r="T30" s="35"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="80"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="52"/>
       <c r="G31" s="54"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="34"/>
-      <c r="S31" s="35"/>
+      <c r="S31" s="41"/>
       <c r="T31" s="35"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="80"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="52"/>
       <c r="G32" s="54"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
       <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="35"/>
       <c r="R32" s="34"/>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A33" s="68"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="80"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="52"/>
       <c r="G33" s="54"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="36"/>
+      <c r="Q33" s="35"/>
       <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="80"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="52"/>
       <c r="G34" s="54"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
       <c r="P34" s="35"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="34"/>
       <c r="S34" s="35"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="80"/>
+      <c r="T34" s="35"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="78"/>
       <c r="F35" s="52"/>
       <c r="G35" s="54"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="34"/>
-      <c r="S35" s="35"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="80"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="52"/>
       <c r="G36" s="54"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="34"/>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="80"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="52"/>
       <c r="G37" s="54"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
       <c r="P37" s="35"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="34"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A38" s="68"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="80"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="52"/>
       <c r="G38" s="54"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="P38" s="35"/>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="83" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="S40" s="35"/>
+    </row>
+    <row r="41" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="37"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="10"/>
+      <c r="H42" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="S39" s="35"/>
-    </row>
-    <row r="40" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="37"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="10"/>
-      <c r="H41" s="85" t="s">
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="10"/>
+      <c r="H43" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="10"/>
-      <c r="H42" s="68" t="s">
+      <c r="I43" s="67"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="67"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="97"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="10"/>
-      <c r="H43" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="69"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="97"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="10"/>
-      <c r="H44" s="86" t="s">
+      <c r="I45" s="85"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="98"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="10"/>
+      <c r="H46" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="100"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="89"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="10"/>
-      <c r="H45" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="69"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="103"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A46" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="40"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-    </row>
-    <row r="47" spans="1:19" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="P47" s="38"/>
-    </row>
-    <row r="48" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="67"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="101"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="40"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+    </row>
+    <row r="48" spans="1:20" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42" t="s">
+      <c r="C48" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="P48" s="38"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="P48" s="38"/>
-    </row>
-    <row r="49" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-    </row>
-    <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-    </row>
-    <row r="52" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-    </row>
-    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="50" t="s">
-        <v>15</v>
-      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="110"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
     <row r="54" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="22"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+      <c r="A54" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-    </row>
-    <row r="55" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="115"/>
-    </row>
-    <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="118"/>
-    </row>
-    <row r="57" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="24"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="118"/>
-    </row>
-    <row r="58" spans="1:14" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="24"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="22"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+    </row>
+    <row r="58" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="26" t="s">
+      <c r="H58" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="112"/>
+      <c r="J58" s="112"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="112"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="113"/>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="24"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
+      <c r="L59" s="115"/>
+      <c r="M59" s="115"/>
+      <c r="N59" s="116"/>
+    </row>
+    <row r="60" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="24"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="115"/>
+      <c r="N60" s="116"/>
+    </row>
+    <row r="61" spans="1:14" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="24"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+    </row>
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="26" t="s">
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="26" t="s">
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="103"/>
+    </row>
+    <row r="63" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+    </row>
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="105"/>
-      <c r="M59" s="105"/>
-      <c r="N59" s="105"/>
-    </row>
-    <row r="60" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-    </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="26" t="s">
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="26" t="s">
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="26" t="s">
+      <c r="L64" s="105"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="120" t="s">
+    </row>
+    <row r="65" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="147"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="120" t="s">
+      <c r="G66" s="119"/>
+      <c r="H66" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="91"/>
+      <c r="J66" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="121"/>
-      <c r="H63" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="93"/>
-      <c r="J63" s="30" t="s">
+      <c r="K66" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="K63" s="93" t="s">
+      <c r="N66" s="91"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" s="107"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" s="107"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="119"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="92"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" s="107"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="92"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" s="107"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="119"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" s="107"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" s="107"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" s="107"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" s="107"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="117"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" s="107"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="92"/>
+      <c r="L75" s="92"/>
+      <c r="M75" s="92"/>
+      <c r="N75" s="92"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" s="107"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="119"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="92"/>
+      <c r="L76" s="92"/>
+      <c r="M76" s="92"/>
+      <c r="N76" s="92"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" s="107"/>
+      <c r="B77" s="108"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="119"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" s="107"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="107"/>
+      <c r="B79" s="108"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="119"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
+      <c r="M79" s="92"/>
+      <c r="N79" s="92"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="107"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="119"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="92"/>
+      <c r="M80" s="92"/>
+      <c r="N80" s="92"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" s="107"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="92"/>
+      <c r="M81" s="92"/>
+      <c r="N81" s="92"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" s="107"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="92"/>
+      <c r="L82" s="92"/>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" s="107"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="119"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="92"/>
+      <c r="M83" s="92"/>
+      <c r="N83" s="92"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" s="107"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="92"/>
+      <c r="M84" s="92"/>
+      <c r="N84" s="92"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="107"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="92"/>
+      <c r="L85" s="92"/>
+      <c r="M85" s="92"/>
+      <c r="N85" s="92"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" s="107"/>
+      <c r="B86" s="108"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="119"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="132"/>
+      <c r="G87" s="132"/>
+      <c r="H87" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="134"/>
+      <c r="J87" s="134"/>
+      <c r="K87" s="135"/>
+      <c r="L87" s="135"/>
+      <c r="M87" s="135"/>
+      <c r="N87" s="135"/>
+    </row>
+    <row r="88" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L63" s="93"/>
-      <c r="M63" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N63" s="93"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A64" s="109"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="94"/>
-      <c r="M64" s="94"/>
-      <c r="N64" s="94"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="109"/>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="94"/>
-      <c r="L65" s="94"/>
-      <c r="M65" s="94"/>
-      <c r="N65" s="94"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="109"/>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="94"/>
-      <c r="M66" s="94"/>
-      <c r="N66" s="94"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="109"/>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="109"/>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="94"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="109"/>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="93"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="94"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="109"/>
-      <c r="B70" s="110"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="120"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="93"/>
-      <c r="I70" s="93"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="94"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="109"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="109"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="109"/>
-      <c r="B73" s="110"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="94"/>
-      <c r="L73" s="94"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="109"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="119"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="94"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="109"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="120"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="93"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="94"/>
-      <c r="L75" s="94"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="109"/>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="120"/>
-      <c r="G76" s="121"/>
-      <c r="H76" s="93"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A77" s="109"/>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A78" s="109"/>
-      <c r="B78" s="110"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="94"/>
-      <c r="L78" s="94"/>
-      <c r="M78" s="94"/>
-      <c r="N78" s="94"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A79" s="109"/>
-      <c r="B79" s="110"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="93"/>
-      <c r="I79" s="93"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="94"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="94"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="109"/>
-      <c r="B80" s="110"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="119"/>
-      <c r="F80" s="120"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="94"/>
-      <c r="L80" s="94"/>
-      <c r="M80" s="94"/>
-      <c r="N80" s="94"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A81" s="109"/>
-      <c r="B81" s="110"/>
-      <c r="C81" s="110"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="120"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="94"/>
-      <c r="L81" s="94"/>
-      <c r="M81" s="94"/>
-      <c r="N81" s="94"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A82" s="109"/>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="119"/>
-      <c r="F82" s="120"/>
-      <c r="G82" s="121"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="94"/>
-      <c r="L82" s="94"/>
-      <c r="M82" s="94"/>
-      <c r="N82" s="94"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A83" s="109"/>
-      <c r="B83" s="110"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="119"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="93"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="94"/>
-      <c r="L83" s="94"/>
-      <c r="M83" s="94"/>
-      <c r="N83" s="94"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="109"/>
-      <c r="B84" s="110"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="110"/>
-      <c r="E84" s="119"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="121"/>
-      <c r="H84" s="93"/>
-      <c r="I84" s="93"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="94"/>
-      <c r="L84" s="94"/>
-      <c r="M84" s="94"/>
-      <c r="N84" s="94"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="134"/>
-      <c r="B85" s="134"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="134"/>
-      <c r="H85" s="135" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="136"/>
-      <c r="J85" s="136"/>
-      <c r="K85" s="137"/>
-      <c r="L85" s="137"/>
-      <c r="M85" s="137"/>
-      <c r="N85" s="137"/>
-    </row>
-    <row r="86" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="145"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="127"/>
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="127"/>
-      <c r="J87" s="127"/>
-      <c r="K87" s="94"/>
-      <c r="L87" s="94"/>
-      <c r="M87" s="94"/>
-      <c r="N87" s="94"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" s="127"/>
-      <c r="B88" s="127"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="110"/>
-      <c r="J88" s="119"/>
-      <c r="K88" s="138"/>
-      <c r="L88" s="139"/>
-      <c r="M88" s="139"/>
-      <c r="N88" s="140"/>
+      <c r="B88" s="143"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="143"/>
+      <c r="F88" s="144"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" s="127"/>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
       <c r="F89" s="31"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="110"/>
-      <c r="J89" s="119"/>
-      <c r="K89" s="138"/>
-      <c r="L89" s="139"/>
-      <c r="M89" s="139"/>
-      <c r="N89" s="140"/>
+      <c r="H89" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="92"/>
+      <c r="L89" s="92"/>
+      <c r="M89" s="92"/>
+      <c r="N89" s="92"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" s="127"/>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
+      <c r="A90" s="125"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
       <c r="F90" s="31"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="129"/>
-      <c r="J90" s="130"/>
-      <c r="K90" s="131"/>
-      <c r="L90" s="132"/>
-      <c r="M90" s="132"/>
-      <c r="N90" s="133"/>
+      <c r="H90" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="108"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="136"/>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="138"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A91" s="127"/>
-      <c r="B91" s="127"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
+      <c r="A91" s="125"/>
+      <c r="B91" s="125"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
       <c r="F91" s="31"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="109" t="s">
+      <c r="H91" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="110"/>
-      <c r="J91" s="119"/>
-      <c r="K91" s="141"/>
-      <c r="L91" s="142"/>
-      <c r="M91" s="142"/>
-      <c r="N91" s="143"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="136"/>
+      <c r="L91" s="137"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="138"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A92" s="122" t="str">
-        <f>A46</f>
+      <c r="A92" s="125"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="127"/>
+      <c r="J92" s="128"/>
+      <c r="K92" s="129"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
+      <c r="N92" s="131"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" s="125"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="108"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="139"/>
+      <c r="L93" s="140"/>
+      <c r="M93" s="140"/>
+      <c r="N93" s="141"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" s="120" t="str">
+        <f>A47</f>
         <v>非課税額計</v>
       </c>
-      <c r="B92" s="122"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="73"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="72"/>
+      <c r="N94" s="72"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="306">
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
+  <mergeCells count="296">
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="F84:G84"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:N85"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B12:E13"/>
     <mergeCell ref="A92:E92"/>
-    <mergeCell ref="B56:E57"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:N87"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="K90:N90"/>
     <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:N77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="F76:G76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H75:I75"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="M75:N75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="M73:N73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="A72:E72"/>
     <mergeCell ref="A73:E73"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
     <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H75:I75"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="M71:N71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:N67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="K44:N44"/>
     <mergeCell ref="K45:N45"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H55:N55"/>
-    <mergeCell ref="H56:N56"/>
-    <mergeCell ref="H57:N57"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H58:N58"/>
+    <mergeCell ref="H59:N59"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M40:N40"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K40:L40"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A36:E36"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="J52:K53"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J55:K56"/>
     <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H39:I39"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A64:A84">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+  <conditionalFormatting sqref="A67:A86 F67:N86">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:F92">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+  <conditionalFormatting sqref="A90:F94">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51 B53">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+  <conditionalFormatting sqref="B53:B54 B56">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:C59 E59 G59:J59 L59:N59 G61:J61 L61:M61 P63">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="B62:C62 E62 G62:J62 L62:N62 G64:J64 L64:M64 P66">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:C59 E59 G59:J59 L59:N59 G61:J61 L61:M61">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+  <conditionalFormatting sqref="B62:C62 E62 G62:J62 L62:N62 G64:J64 L64:M64">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:E11">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+  <conditionalFormatting sqref="B12:E13">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:E57">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="B59:E60">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:E61">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+  <conditionalFormatting sqref="B64:E64">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"明治33年1月0日"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F92">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="F89:F94">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:N84">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92:J92">
+  <conditionalFormatting sqref="H94:J94">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:N39">
+  <conditionalFormatting sqref="K40:N40">
     <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:N45">
+  <conditionalFormatting sqref="K42:N46">
     <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:N85">
+  <conditionalFormatting sqref="K87:N87">
     <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:N92">
+  <conditionalFormatting sqref="K89:N94">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:N92">
+  <conditionalFormatting sqref="K94:N94">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49:N49">
+  <conditionalFormatting sqref="L52:N52">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"明治33年1月0日"</formula>
     </cfRule>
@@ -3508,7 +3525,7 @@
   <pageMargins left="0" right="0" top="0.31496062992125984" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" min="3" max="13" man="1"/>
+    <brk id="47" min="3" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Server/Templates/invoice-template.xlsx
+++ b/Server/Templates/invoice-template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AC7C6-DA2B-4BC4-B4C8-5FA6037F9D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B43B33-7E92-44DA-B6D4-F1B9222AA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="1890" windowWidth="28800" windowHeight="15330" xr2:uid="{5C5BC009-77A7-4779-A9B3-4B0556276CE1}"/>
+    <workbookView xWindow="6540" yWindow="4080" windowWidth="28800" windowHeight="15105" xr2:uid="{5C5BC009-77A7-4779-A9B3-4B0556276CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,9 @@
     <numFmt numFmtId="176" formatCode="[$]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@" x16r2:formatCode16="[$-ja-JP-x-gannen]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,14 +437,6 @@
       <color rgb="FFFFC000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -612,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,19 +767,312 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -804,15 +1089,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,296 +1098,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1512,7 +1499,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1528,17 +1517,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="49"/>
@@ -1552,7 +1541,7 @@
       <c r="K2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="146"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="49"/>
@@ -1566,7 +1555,7 @@
       <c r="K3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="147"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="49"/>
@@ -1580,35 +1569,35 @@
       <c r="K4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J5" s="1"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1618,30 +1607,30 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
     </row>
@@ -1649,51 +1638,51 @@
       <c r="A11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="145"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="145"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
     </row>
@@ -1705,8 +1694,8 @@
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
@@ -1714,16 +1703,16 @@
       <c r="F15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
       <c r="K15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
     </row>
     <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12"/>
@@ -1745,105 +1734,105 @@
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
       <c r="K17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="N17" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="52" t="s">
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="65" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="65"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65" t="s">
+      <c r="L19" s="132"/>
+      <c r="M19" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="65"/>
+      <c r="N19" s="132"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="34"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="34"/>
@@ -1851,20 +1840,20 @@
       <c r="T22" s="35"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="34"/>
@@ -1872,20 +1861,20 @@
       <c r="T23" s="35"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="34"/>
@@ -1893,20 +1882,20 @@
       <c r="T24" s="35"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="34"/>
@@ -1914,20 +1903,20 @@
       <c r="T25" s="35"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="34"/>
@@ -1935,20 +1924,20 @@
       <c r="T26" s="35"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
       <c r="R27" s="34"/>
@@ -1956,39 +1945,39 @@
       <c r="T27" s="35"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
       <c r="R28" s="34"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="34"/>
@@ -1996,20 +1985,20 @@
       <c r="T29" s="35"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="34"/>
@@ -2017,20 +2006,20 @@
       <c r="T30" s="35"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="34"/>
@@ -2038,20 +2027,20 @@
       <c r="T31" s="35"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
       <c r="R32" s="34"/>
@@ -2059,20 +2048,20 @@
       <c r="T32" s="35"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
       <c r="R33" s="34"/>
@@ -2080,20 +2069,20 @@
       <c r="T33" s="35"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
       <c r="P34" s="35"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="34"/>
@@ -2101,127 +2090,127 @@
       <c r="T34" s="35"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="34"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
       <c r="P36" s="35"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="34"/>
       <c r="S36" s="35"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="34"/>
       <c r="S37" s="35"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
       <c r="P38" s="35"/>
       <c r="S38" s="35"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A39" s="66"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
       <c r="S39" s="35"/>
     </row>
     <row r="40" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="81" t="s">
+      <c r="A40" s="119"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="124"/>
       <c r="G41" s="3"/>
       <c r="H41" s="5"/>
       <c r="I41" s="3"/>
@@ -2234,121 +2223,121 @@
       <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="10"/>
-      <c r="H42" s="83" t="s">
+      <c r="H42" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
+      <c r="A43" s="118"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="10"/>
-      <c r="H43" s="66" t="s">
+      <c r="H43" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="95"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="92"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
+      <c r="A44" s="118"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="10"/>
-      <c r="H44" s="66" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="95"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="92"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
+      <c r="A45" s="118"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="10"/>
-      <c r="H45" s="84" t="s">
+      <c r="H45" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="85"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="98"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A46" s="87"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="10"/>
-      <c r="H46" s="66" t="s">
+      <c r="H46" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="101"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="98"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="40"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
     </row>
     <row r="48" spans="1:20" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -2366,6 +2355,7 @@
       <c r="K49" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="L49" s="47"/>
     </row>
     <row r="50" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="49"/>
@@ -2379,6 +2369,7 @@
       <c r="K50" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="L50" s="146"/>
     </row>
     <row r="51" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="49"/>
@@ -2392,9 +2383,9 @@
       <c r="K51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
     </row>
     <row r="52" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
@@ -2408,16 +2399,16 @@
       <c r="I52" s="17"/>
       <c r="J52" s="21"/>
       <c r="K52" s="18"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -2434,12 +2425,12 @@
       <c r="A54" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="21"/>
@@ -2458,8 +2449,8 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="142"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
@@ -2468,18 +2459,18 @@
       <c r="A56" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
       <c r="F56" s="48" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="142"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
@@ -2494,11 +2485,11 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="139"/>
+      <c r="N57" s="139"/>
     </row>
     <row r="58" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="22" t="s">
@@ -2510,47 +2501,47 @@
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="111" t="s">
+      <c r="H58" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="113"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="107"/>
     </row>
     <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="24"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="115"/>
-      <c r="N59" s="116"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="110"/>
     </row>
     <row r="60" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="24"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="116"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="110"/>
     </row>
     <row r="61" spans="1:14" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
@@ -2572,8 +2563,8 @@
       <c r="A62" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="26" t="s">
         <v>16</v>
       </c>
@@ -2581,16 +2572,16 @@
       <c r="F62" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
       <c r="K62" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
     </row>
     <row r="63" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="28"/>
@@ -2612,22 +2603,22 @@
       <c r="A64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
       <c r="K64" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L64" s="105"/>
-      <c r="M64" s="105"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
       <c r="N64" s="29" t="s">
         <v>23</v>
       </c>
@@ -2649,380 +2640,380 @@
       <c r="N65" s="17"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="118" t="s">
+      <c r="A66" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="145"/>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="118" t="s">
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="119"/>
-      <c r="H66" s="91" t="s">
+      <c r="G66" s="58"/>
+      <c r="H66" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="91"/>
+      <c r="I66" s="89"/>
       <c r="J66" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="91" t="s">
+      <c r="K66" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91" t="s">
+      <c r="L66" s="89"/>
+      <c r="M66" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="91"/>
+      <c r="N66" s="89"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="107"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="107"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="92"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="107"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="92"/>
-      <c r="N69" s="92"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="107"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="108"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="107"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="92"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="107"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="107"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="107"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="108"/>
-      <c r="D74" s="108"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
-      <c r="N74" s="92"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="107"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="92"/>
-      <c r="N75" s="92"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="107"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="92"/>
-      <c r="M76" s="92"/>
-      <c r="N76" s="92"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A77" s="107"/>
-      <c r="B77" s="108"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="92"/>
-      <c r="M77" s="92"/>
-      <c r="N77" s="92"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A78" s="107"/>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A79" s="107"/>
-      <c r="B79" s="108"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="108"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
-      <c r="M79" s="92"/>
-      <c r="N79" s="92"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="107"/>
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="119"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="92"/>
-      <c r="M80" s="92"/>
-      <c r="N80" s="92"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A81" s="107"/>
-      <c r="B81" s="108"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="117"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="119"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="92"/>
-      <c r="L81" s="92"/>
-      <c r="M81" s="92"/>
-      <c r="N81" s="92"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A82" s="107"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="119"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="92"/>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="50"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A83" s="107"/>
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="119"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="92"/>
-      <c r="L83" s="92"/>
-      <c r="M83" s="92"/>
-      <c r="N83" s="92"/>
+      <c r="A83" s="54"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="107"/>
-      <c r="B84" s="108"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="119"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="50"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="107"/>
-      <c r="B85" s="108"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="119"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="92"/>
-      <c r="L85" s="92"/>
-      <c r="M85" s="92"/>
-      <c r="N85" s="92"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" s="107"/>
-      <c r="B86" s="108"/>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="119"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="92"/>
-      <c r="N86" s="92"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="132"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="132"/>
-      <c r="E87" s="132"/>
-      <c r="F87" s="132"/>
-      <c r="G87" s="132"/>
-      <c r="H87" s="133" t="s">
+      <c r="A87" s="81"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="I87" s="134"/>
-      <c r="J87" s="134"/>
-      <c r="K87" s="135"/>
-      <c r="L87" s="135"/>
-      <c r="M87" s="135"/>
-      <c r="N87" s="135"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="83"/>
+      <c r="K87" s="84"/>
+      <c r="L87" s="84"/>
+      <c r="M87" s="84"/>
+      <c r="N87" s="84"/>
     </row>
     <row r="88" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="142" t="s">
+      <c r="A88" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="144"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="69"/>
       <c r="G88" s="32"/>
       <c r="H88" s="23"/>
       <c r="I88" s="32"/>
@@ -3033,158 +3024,347 @@
       <c r="N88" s="33"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="31"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="125" t="s">
+      <c r="H89" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I89" s="125"/>
-      <c r="J89" s="125"/>
-      <c r="K89" s="92"/>
-      <c r="L89" s="92"/>
-      <c r="M89" s="92"/>
-      <c r="N89" s="92"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="50"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" s="125"/>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="31"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="107" t="s">
+      <c r="H90" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="108"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="136"/>
-      <c r="L90" s="137"/>
-      <c r="M90" s="137"/>
-      <c r="N90" s="138"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="86"/>
+      <c r="M90" s="86"/>
+      <c r="N90" s="87"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A91" s="125"/>
-      <c r="B91" s="125"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="125"/>
-      <c r="E91" s="125"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="31"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="107" t="s">
+      <c r="H91" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="108"/>
-      <c r="J91" s="117"/>
-      <c r="K91" s="136"/>
-      <c r="L91" s="137"/>
-      <c r="M91" s="137"/>
-      <c r="N91" s="138"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="87"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A92" s="125"/>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
       <c r="F92" s="31"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="126" t="s">
+      <c r="H92" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="127"/>
-      <c r="J92" s="128"/>
-      <c r="K92" s="129"/>
-      <c r="L92" s="130"/>
-      <c r="M92" s="130"/>
-      <c r="N92" s="131"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="80"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A93" s="125"/>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="31"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="107" t="s">
+      <c r="H93" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I93" s="108"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="139"/>
-      <c r="L93" s="140"/>
-      <c r="M93" s="140"/>
-      <c r="N93" s="141"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="66"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A94" s="120" t="str">
+      <c r="A94" s="70" t="str">
         <f>A47</f>
         <v>非課税額計</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="120"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
       <c r="F94" s="39"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="72"/>
-      <c r="N94" s="72"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="128"/>
+      <c r="K94" s="129"/>
+      <c r="L94" s="130"/>
+      <c r="M94" s="130"/>
+      <c r="N94" s="130"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="296">
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H58:N58"/>
+    <mergeCell ref="H59:N59"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
     <mergeCell ref="A94:E94"/>
     <mergeCell ref="B59:E60"/>
     <mergeCell ref="H86:I86"/>
@@ -3209,240 +3389,51 @@
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="K89:L89"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="H83:I83"/>
     <mergeCell ref="H80:I80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H58:N58"/>
-    <mergeCell ref="H59:N59"/>
-    <mergeCell ref="H60:N60"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A67:A86 F67:N86">
+  <conditionalFormatting sqref="A67:A86 F67:G86">
     <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3502,7 +3493,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:N87">
+  <conditionalFormatting sqref="K67:N87">
     <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3523,7 +3514,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.31496062992125984" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="47" min="3" max="13" man="1"/>
   </rowBreaks>
